--- a/biology/Médecine/Mépivacaïne/Mépivacaïne.xlsx
+++ b/biology/Médecine/Mépivacaïne/Mépivacaïne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9pivaca%C3%AFne</t>
+          <t>Mépivacaïne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La mépivacaïne est un anesthésique local de la famille des amino-amides, commercialisé sous le nom de Carbocaïne.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9pivaca%C3%AFne</t>
+          <t>Mépivacaïne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La mépivacaïne est une molécule chirale car elle possède un atome de carbone asymétrique, le C2 de la pipéridine qui porte le groupe carbonyle. Elle se présente donc sous la forme d'une paire d'énantiomères :
 R-mépivacaïne
